--- a/ZESTAWIENIE SPRZEDAŻY I ZYSKÓW ZA ROK 2019.xlsx
+++ b/ZESTAWIENIE SPRZEDAŻY I ZYSKÓW ZA ROK 2019.xlsx
@@ -12,28 +12,28 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17715"/>
   </bookViews>
   <sheets>
-    <sheet name="Pulpit menadżera" sheetId="2" r:id="rId1"/>
-    <sheet name="Dane zamówień" sheetId="1" r:id="rId2"/>
-    <sheet name="Roboczy" sheetId="3" r:id="rId3"/>
+    <sheet name="Intro" sheetId="4" r:id="rId1"/>
+    <sheet name="Pulpit menadżera" sheetId="2" r:id="rId2"/>
+    <sheet name="Dane zamówień" sheetId="1" r:id="rId3"/>
+    <sheet name="Roboczy" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dane zamówień'!$B$2:$L$399</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dane zamówień'!$B$2:$L$399</definedName>
     <definedName name="Fragmentator_Data_zamówienia">#N/A</definedName>
     <definedName name="Fragmentator_Państwo">#N/A</definedName>
     <definedName name="Fragmentator_Sprzedawca">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -502,140 +502,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_Sheet1" xfId="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1007">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
     </dxf>
@@ -643,4999 +522,7 @@
       <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
@@ -5648,12 +535,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ &quot;zł&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5933,11 +814,45 @@
     <dxf>
       <numFmt numFmtId="9" formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="aaaSlicerStyleLight6 2" pivot="0" table="0" count="10">
-      <tableStyleElement type="wholeTable" dxfId="969"/>
-      <tableStyleElement type="headerRow" dxfId="968"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7033,11 +1948,11 @@
         </c:dLbls>
         <c:gapWidth val="111"/>
         <c:overlap val="-1"/>
-        <c:axId val="419764336"/>
-        <c:axId val="419765120"/>
+        <c:axId val="410513960"/>
+        <c:axId val="410514344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419764336"/>
+        <c:axId val="410513960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7080,7 +1995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419765120"/>
+        <c:crossAx val="410514344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7088,7 +2003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419765120"/>
+        <c:axId val="410514344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7098,7 +2013,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419764336"/>
+        <c:crossAx val="410513960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7586,11 +2501,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="79"/>
-        <c:axId val="419767864"/>
-        <c:axId val="419764728"/>
+        <c:axId val="410559728"/>
+        <c:axId val="410735552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419767864"/>
+        <c:axId val="410559728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7633,7 +2548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419764728"/>
+        <c:crossAx val="410735552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7641,7 +2556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419764728"/>
+        <c:axId val="410735552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7651,7 +2566,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419767864"/>
+        <c:crossAx val="410559728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9803,11 +4718,11 @@
         </c:dLbls>
         <c:gapWidth val="96"/>
         <c:overlap val="-27"/>
-        <c:axId val="419769040"/>
-        <c:axId val="419767080"/>
+        <c:axId val="411566544"/>
+        <c:axId val="411566928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="419769040"/>
+        <c:axId val="411566544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9850,7 +4765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419767080"/>
+        <c:crossAx val="411566928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9858,7 +4773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419767080"/>
+        <c:axId val="411566928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9868,7 +4783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419769040"/>
+        <c:crossAx val="411566544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10093,8 +5008,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421642352"/>
-        <c:axId val="421646664"/>
+        <c:axId val="412167784"/>
+        <c:axId val="411611992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10177,11 +5092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421642352"/>
-        <c:axId val="421646664"/>
+        <c:axId val="412167784"/>
+        <c:axId val="411611992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="421642352"/>
+        <c:axId val="412167784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10224,7 +5139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421646664"/>
+        <c:crossAx val="411611992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10232,7 +5147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421646664"/>
+        <c:axId val="411611992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10283,7 +5198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421642352"/>
+        <c:crossAx val="412167784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20000"/>
@@ -10787,11 +5702,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="421645096"/>
-        <c:axId val="421647840"/>
+        <c:axId val="177116448"/>
+        <c:axId val="177112920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421645096"/>
+        <c:axId val="177116448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10834,7 +5749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421647840"/>
+        <c:crossAx val="177112920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10842,7 +5757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421647840"/>
+        <c:axId val="177112920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10852,7 +5767,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421645096"/>
+        <c:crossAx val="177116448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14252,6 +9167,454 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Prostokąt 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14031058" cy="7810500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="2000" b="1"/>
+            <a:t>Zestawienie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="2000" b="1" baseline="0"/>
+            <a:t> Sprzedaży i Zysków </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>Dashboard zawiera analizę</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" baseline="0"/>
+            <a:t> zysków firmy za rok 2019. Zawiera kluczowe metryki i spostrzeżenia, umożliwiając podejmowanie decyzji opartych na danych w celu zwiększenia efektywności operacyjnej.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" b="1"/>
+            <a:t>Cel i zakres</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pl-PL" sz="1600"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>Raport został zaprojektowany, aby dostarczyć przejrzysty przegląd sprzedaży</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" baseline="0"/>
+            <a:t> i zysków. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>Wnioski płynące z niego</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>pomagają odpowiedzieć na kluczowe pytania biznesowe, takie jak:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>1. Który sprzedawca wygenerował najwięcej zysków?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>2. Jak przedstawiają się koszty dostawy? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>3. Produkty jakiej kategorii dały firmie największy przychód?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>4. Jak na przestrzeni miesięcy rozłożyła się liczba dokonanych transakcji?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pl-PL" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Methodology and Data Sources</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>Do stworzenia</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" baseline="0"/>
+            <a:t> raportu zostały </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600"/>
+            <a:t>wykorzystane</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" baseline="0"/>
+            <a:t> dane z portalu comarch.pl. Dashboard został zbudowany za pomocą tabeli przestawnych.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pl-PL" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Business Impact</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Wykorzystując ten </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pl-PL" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dashbpard</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, menedżerowie mogą podejmować świadome decyzje w celu optymalizacji oferty produktowej</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pl-PL" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> oraz dostawczej</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pl-PL" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> a także</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pl-PL" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wytypowania najbardziej i najmniej efektywnych sprzedawców</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="pl-PL" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Us</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>trukturyzowana wizualizacja danych umożliwia szybką i skuteczną ocenę wyników.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pl-PL" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" b="1"/>
+            <a:t>Raport wykonany przez</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" b="1" baseline="0"/>
+            <a:t> Dawida </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Stocki</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1600" b="1"/>
+            <a:t>ego</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -14327,8 +9690,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Sprzedawca"/>
@@ -14345,7 +9708,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14399,8 +9762,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Państwo"/>
@@ -14417,7 +9780,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14548,10 +9911,10 @@
         <xdr:cNvPr id="15" name="Wykres 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40C632D-2460-831B-ECC0-99DD6DA090DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C40C632D-2460-831B-ECC0-99DD6DA090DB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{27AF7649-4DE0-012B-55C3-B9DA4D23FD34}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{27AF7649-4DE0-012B-55C3-B9DA4D23FD34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14589,7 +9952,7 @@
         <xdr:cNvPr id="16" name="Wykres 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BFDCB5-9F73-0926-508C-2831043DCE89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0BFDCB5-9F73-0926-508C-2831043DCE89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14612,7 +9975,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14632,10 +9995,10 @@
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AF7649-4DE0-012B-55C3-B9DA4D23FD34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27AF7649-4DE0-012B-55C3-B9DA4D23FD34}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B0BFDCB5-9F73-0926-508C-2831043DCE89}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B0BFDCB5-9F73-0926-508C-2831043DCE89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26463,10 +21826,10 @@
     <dataField name="Zysk " fld="10" baseField="4" baseItem="1" numFmtId="7"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="1006">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1005">
+    <format dxfId="36">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" selected="0" defaultSubtotal="1">
@@ -26475,7 +21838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1004">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" defaultSubtotal="1">
@@ -26484,7 +21847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1003">
+    <format dxfId="34">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" selected="0" defaultSubtotal="1">
@@ -26493,7 +21856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1002">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" defaultSubtotal="1">
@@ -26502,7 +21865,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1001">
+    <format dxfId="32">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" selected="0" defaultSubtotal="1">
@@ -26511,7 +21874,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1000">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1" defaultSubtotal="1">
@@ -26520,36 +21883,36 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="999">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="998">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="997">
+    <format dxfId="28">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="996">
+    <format dxfId="27">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="995">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="994">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="993">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="992">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -26569,7 +21932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="991">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -26584,7 +21947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="990">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -26599,7 +21962,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="989">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -26620,6 +21983,609 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sprzedawcy" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+  <location ref="F8:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="22">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="6" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="7" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma z Zysk" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="15">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B30:D34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="22">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="6" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma z Sprzedaż brutto" fld="9" baseField="0" baseItem="0" numFmtId="7"/>
+    <dataField name="Suma z Zysk" fld="10" baseField="0" baseItem="0" numFmtId="7"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Doostawca" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="I50:J54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -26688,7 +22654,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Dostawcy" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="13">
   <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -26998,7 +22964,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="15">
   <location ref="Y6:Z19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -27122,19 +23088,19 @@
     <dataField name="Liczba z Zysk" fld="10" subtotal="count" baseField="1" baseItem="516681392" numFmtId="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="973">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="972">
+    <format dxfId="5">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="971">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="970">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="796">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -27164,7 +23130,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="U11:V21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -27278,609 +23244,6 @@
   <dataFields count="1">
     <dataField name="Suma z Zysk" fld="10" baseField="1" baseItem="0" numFmtId="42"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sprzedawcy" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
-  <location ref="F8:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" numFmtId="165" outline="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="22">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="6" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="7" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma z Zysk" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="975">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="974">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="15">
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B30:D34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="165" outline="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="22">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="10"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="6" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="7" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Suma z Sprzedaż brutto" fld="9" baseField="0" baseItem="0" numFmtId="7"/>
-    <dataField name="Suma z Zysk" fld="10" baseField="0" baseItem="0" numFmtId="7"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -28009,21 +23372,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B1:M399" totalsRowShown="0" headerRowDxfId="988" headerRowBorderDxfId="987" tableBorderDxfId="986" headerRowCellStyle="Normal_Sheet1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B1:M399" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" headerRowCellStyle="Normal_Sheet1">
   <autoFilter ref="B1:M399"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nr zamówienia" dataDxfId="985" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="2" name="Sprzedawca" dataDxfId="984" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="3" name="Data zamówienia" dataDxfId="983" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="1" name="Nr zamówienia" dataDxfId="16" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="2" name="Sprzedawca" dataDxfId="15" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="3" name="Data zamówienia" dataDxfId="14" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="4" name="Kategoria produktu"/>
     <tableColumn id="5" name="Podkategoria produktu"/>
-    <tableColumn id="6" name="Dostawca" dataDxfId="982" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="7" name="Rodzaj transportu" dataDxfId="981" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="8" name="Państwo" dataDxfId="980" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="9" name="Koszt dostawy" dataDxfId="979" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="10" name="Sprzedaż brutto" dataDxfId="978"/>
-    <tableColumn id="11" name="Zysk" dataDxfId="977"/>
-    <tableColumn id="12" name="Miesiąc" dataDxfId="976">
+    <tableColumn id="6" name="Dostawca" dataDxfId="13" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="7" name="Rodzaj transportu" dataDxfId="12" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="8" name="Państwo" dataDxfId="11" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="9" name="Koszt dostawy" dataDxfId="10" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="10" name="Sprzedaż brutto" dataDxfId="9"/>
+    <tableColumn id="11" name="Zysk" dataDxfId="8"/>
+    <tableColumn id="12" name="Miesiąc" dataDxfId="7">
       <calculatedColumnFormula>MONTH(Tabela1[[#This Row],[Data zamówienia]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -28297,9 +23660,25 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="B1:W24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -28357,30 +23736,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
     </row>
     <row r="3" spans="2:23" ht="15" x14ac:dyDescent="0.2">
       <c r="H3" s="19" t="s">
@@ -28671,7 +24050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
@@ -44269,7 +39648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
@@ -44351,7 +39730,7 @@
       <c r="Y7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="Z7" s="30">
         <v>37</v>
       </c>
     </row>
@@ -44365,7 +39744,7 @@
       <c r="Y8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="Z8" s="30">
         <v>36</v>
       </c>
     </row>
@@ -44379,7 +39758,7 @@
       <c r="Y9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Z9" s="32">
+      <c r="Z9" s="30">
         <v>36</v>
       </c>
     </row>
@@ -44393,7 +39772,7 @@
       <c r="Y10" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z10" s="30">
         <v>38</v>
       </c>
     </row>
@@ -44413,7 +39792,7 @@
       <c r="Y11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z11" s="30">
         <v>36</v>
       </c>
     </row>
@@ -44433,7 +39812,7 @@
       <c r="Y12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="Z12" s="30">
         <v>31</v>
       </c>
     </row>
@@ -44453,7 +39832,7 @@
       <c r="Y13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z13" s="30">
         <v>30</v>
       </c>
     </row>
@@ -44473,7 +39852,7 @@
       <c r="Y14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="32">
+      <c r="Z14" s="30">
         <v>32</v>
       </c>
     </row>
@@ -44493,7 +39872,7 @@
       <c r="Y15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="Z15" s="32">
+      <c r="Z15" s="30">
         <v>30</v>
       </c>
     </row>
@@ -44513,7 +39892,7 @@
       <c r="Y16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" s="32">
+      <c r="Z16" s="30">
         <v>32</v>
       </c>
     </row>
@@ -44533,7 +39912,7 @@
       <c r="Y17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Z17" s="32">
+      <c r="Z17" s="30">
         <v>27</v>
       </c>
     </row>
@@ -44553,7 +39932,7 @@
       <c r="Y18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Z18" s="32">
+      <c r="Z18" s="30">
         <v>33</v>
       </c>
     </row>
@@ -44567,7 +39946,7 @@
       <c r="Y19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="Z19" s="32">
+      <c r="Z19" s="30">
         <v>398</v>
       </c>
     </row>
